--- a/files/template/template_technical.xlsx
+++ b/files/template/template_technical.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\I3C\dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Smart_SAQ\files\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0980FC33-A396-4ED5-918C-72BCCF80555A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4932" yWindow="1896" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="1890" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -86,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,26 +500,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -562,7 +559,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -582,7 +579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -598,7 +595,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -614,7 +611,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -630,7 +627,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -646,7 +643,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -669,28 +666,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>